--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -922,7 +922,7 @@
     <t>DiagnosticReport.category:radiology_sub.coding.system</t>
   </si>
   <si>
-    <t>https://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_33.html</t>
+    <t>http://dicom.nema.org/resources/ontology/DCM</t>
   </si>
   <si>
     <t>DiagnosticReport.category:radiology_sub.coding.version</t>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2546" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2546" uniqueCount="463">
   <si>
     <t>Property</t>
   </si>
@@ -553,7 +553,7 @@
     <t>診断レポートの状態。【詳細参照】</t>
   </si>
   <si>
-    <t>診断レポートの状態</t>
+    <t>診断レポートの状態。以下のいずれかが設定される。registered | partial | preliminary | final | amended | corrected | appended | cancelled | entered-in-error | unknown</t>
   </si>
   <si>
     <t>FHIRのstringsは1MBを越えてはならない（SHALL NOT）ことに留意すること。
@@ -590,9 +590,6 @@
   <si>
     <t>Department
 Sub-departmentServiceDiscipline</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -3365,7 +3362,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>80</v>
@@ -3380,16 +3377,16 @@
         <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3419,20 +3416,20 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>180</v>
@@ -3453,31 +3450,31 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>180</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>181</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>90</v>
@@ -3492,16 +3489,16 @@
         <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="N15" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3531,7 +3528,7 @@
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3567,21 +3564,21 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3604,13 +3601,13 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3661,7 +3658,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3682,7 +3679,7 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3690,10 +3687,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3722,7 +3719,7 @@
         <v>137</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>139</v>
@@ -3763,19 +3760,19 @@
         <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AC17" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AC17" t="s" s="2">
+      <c r="AD17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3796,7 +3793,7 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3804,10 +3801,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3830,19 +3827,19 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -3891,7 +3888,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3909,10 +3906,10 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -3920,10 +3917,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3946,13 +3943,13 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4003,7 +4000,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4024,7 +4021,7 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4032,10 +4029,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4064,7 +4061,7 @@
         <v>137</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>139</v>
@@ -4105,19 +4102,19 @@
         <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AC20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AC20" t="s" s="2">
+      <c r="AD20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4138,7 +4135,7 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4146,10 +4143,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4175,65 +4172,65 @@
         <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4251,10 +4248,10 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4262,10 +4259,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4288,16 +4285,16 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4347,7 +4344,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4365,10 +4362,10 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4376,10 +4373,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4405,63 +4402,63 @@
         <v>110</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4479,10 +4476,10 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4490,10 +4487,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4516,17 +4513,17 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4536,46 +4533,46 @@
         <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4593,10 +4590,10 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4604,10 +4601,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4630,19 +4627,19 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4691,7 +4688,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4709,10 +4706,10 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4720,10 +4717,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4746,19 +4743,19 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4807,7 +4804,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4825,10 +4822,10 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -4836,20 +4833,20 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>180</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>181</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>80</v>
@@ -4864,16 +4861,16 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="N27" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4903,7 +4900,7 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4939,21 +4936,21 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4976,13 +4973,13 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5033,7 +5030,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5054,7 +5051,7 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5062,10 +5059,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5094,7 +5091,7 @@
         <v>137</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>139</v>
@@ -5135,19 +5132,19 @@
         <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AC29" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AC29" t="s" s="2">
+      <c r="AD29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5168,7 +5165,7 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5176,10 +5173,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5202,19 +5199,19 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5263,7 +5260,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5281,10 +5278,10 @@
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5292,10 +5289,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5318,13 +5315,13 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5375,7 +5372,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5396,7 +5393,7 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5404,10 +5401,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5436,7 +5433,7 @@
         <v>137</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>139</v>
@@ -5477,19 +5474,19 @@
         <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AC32" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AC32" t="s" s="2">
+      <c r="AD32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5510,7 +5507,7 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5518,10 +5515,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5547,23 +5544,23 @@
         <v>104</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>81</v>
@@ -5605,7 +5602,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5623,10 +5620,10 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5634,10 +5631,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5660,16 +5657,16 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5719,7 +5716,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5737,10 +5734,10 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5748,10 +5745,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5777,14 +5774,14 @@
         <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5833,7 +5830,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5851,10 +5848,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5862,10 +5859,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5888,17 +5885,17 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -5947,7 +5944,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5965,10 +5962,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -5976,10 +5973,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6002,19 +5999,19 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6063,7 +6060,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6081,10 +6078,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6092,10 +6089,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6118,19 +6115,19 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6179,7 +6176,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6197,10 +6194,10 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6208,14 +6205,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6234,16 +6231,16 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6272,11 +6269,11 @@
         <v>114</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6293,7 +6290,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>90</v>
@@ -6308,24 +6305,24 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6348,13 +6345,13 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6405,7 +6402,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6426,7 +6423,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6434,10 +6431,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6466,7 +6463,7 @@
         <v>137</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>139</v>
@@ -6507,19 +6504,19 @@
         <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AC41" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AC41" t="s" s="2">
+      <c r="AD41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6540,7 +6537,7 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6548,10 +6545,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6559,7 +6556,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -6574,19 +6571,19 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6623,17 +6620,17 @@
         <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6651,10 +6648,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6662,20 +6659,20 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C43" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>90</v>
@@ -6690,19 +6687,19 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N43" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="O43" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6751,7 +6748,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6769,10 +6766,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6780,10 +6777,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6806,13 +6803,13 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6863,7 +6860,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6884,7 +6881,7 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6892,10 +6889,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6924,7 +6921,7 @@
         <v>137</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>139</v>
@@ -6965,19 +6962,19 @@
         <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AC45" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AC45" t="s" s="2">
+      <c r="AD45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6998,7 +6995,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7006,10 +7003,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7035,65 +7032,65 @@
         <v>104</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7111,10 +7108,10 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7122,10 +7119,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7148,16 +7145,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7207,7 +7204,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7225,10 +7222,10 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7236,10 +7233,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7265,21 +7262,21 @@
         <v>110</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>81</v>
@@ -7321,7 +7318,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7339,10 +7336,10 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7350,10 +7347,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7376,17 +7373,17 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7435,7 +7432,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7453,10 +7450,10 @@
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7464,10 +7461,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7490,19 +7487,19 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7551,7 +7548,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7569,10 +7566,10 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7580,10 +7577,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7606,19 +7603,19 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7667,7 +7664,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7685,10 +7682,10 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -7696,14 +7693,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7722,19 +7719,19 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -7783,7 +7780,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7798,28 +7795,28 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7838,19 +7835,19 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -7899,7 +7896,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7914,28 +7911,28 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7954,19 +7951,19 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8015,7 +8012,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8030,28 +8027,28 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>364</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8070,19 +8067,19 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8131,7 +8128,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8149,25 +8146,25 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8186,19 +8183,19 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8247,7 +8244,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8262,28 +8259,28 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>385</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8302,19 +8299,19 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="N57" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="O57" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8363,7 +8360,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8378,24 +8375,24 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>385</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8418,19 +8415,19 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8479,7 +8476,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8497,10 +8494,10 @@
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -8508,14 +8505,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8534,19 +8531,19 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -8595,7 +8592,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8613,10 +8610,10 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -8624,10 +8621,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8650,16 +8647,16 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8709,7 +8706,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8730,7 +8727,7 @@
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -8738,14 +8735,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8764,19 +8761,19 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -8825,7 +8822,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8843,10 +8840,10 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -8854,10 +8851,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8880,13 +8877,13 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8937,7 +8934,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8958,7 +8955,7 @@
         <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -8966,10 +8963,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8998,7 +8995,7 @@
         <v>137</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>139</v>
@@ -9051,7 +9048,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9072,7 +9069,7 @@
         <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9080,14 +9077,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9109,10 +9106,10 @@
         <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>139</v>
@@ -9167,7 +9164,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9196,10 +9193,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9222,19 +9219,19 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -9283,7 +9280,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9304,7 +9301,7 @@
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -9312,10 +9309,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9338,16 +9335,16 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9397,7 +9394,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>90</v>
@@ -9418,7 +9415,7 @@
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -9426,14 +9423,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9452,19 +9449,19 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>81</v>
@@ -9513,7 +9510,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9531,10 +9528,10 @@
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -9542,10 +9539,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9568,16 +9565,16 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9603,14 +9600,14 @@
         <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Y68" t="s" s="2">
+      <c r="Z68" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
       </c>
@@ -9627,7 +9624,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9645,10 +9642,10 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -9656,10 +9653,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9682,19 +9679,19 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -9743,7 +9740,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9761,10 +9758,10 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2546" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2546" uniqueCount="465">
   <si>
     <t>Property</t>
   </si>
@@ -928,7 +928,13 @@
     <t>DiagnosticReport.category:radiology_sub.coding.code</t>
   </si>
   <si>
+    <t>DICOMのモダリティコードを指定</t>
+  </si>
+  <si>
     <t>DiagnosticReport.category:radiology_sub.coding.display</t>
+  </si>
+  <si>
+    <t>DICOMのモダリティコードの意味を記載（例: 超音波検査）</t>
   </si>
   <si>
     <t>DiagnosticReport.category:radiology_sub.coding.userSelected</t>
@@ -4384,7 +4390,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -5756,7 +5762,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
@@ -5777,7 +5783,7 @@
         <v>243</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5859,7 +5865,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>251</v>
@@ -5891,7 +5897,7 @@
         <v>252</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5973,7 +5979,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>260</v>
@@ -6089,7 +6095,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>270</v>
@@ -6205,14 +6211,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6234,13 +6240,13 @@
         <v>182</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6269,10 +6275,10 @@
         <v>114</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6290,7 +6296,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>90</v>
@@ -6305,24 +6311,24 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6431,10 +6437,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6545,10 +6551,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6620,7 +6626,7 @@
         <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
@@ -6659,13 +6665,13 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="B43" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="C43" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>81</v>
@@ -6690,13 +6696,13 @@
         <v>211</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>215</v>
@@ -6777,10 +6783,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6889,10 +6895,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7003,10 +7009,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7119,10 +7125,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7233,10 +7239,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7276,7 +7282,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>81</v>
@@ -7347,10 +7353,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7461,10 +7467,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7577,10 +7583,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7693,14 +7699,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7719,19 +7725,19 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -7780,7 +7786,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7795,28 +7801,28 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7835,19 +7841,19 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -7896,7 +7902,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7911,28 +7917,28 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7951,19 +7957,19 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8012,7 +8018,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8027,28 +8033,28 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8067,19 +8073,19 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8128,7 +8134,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8146,25 +8152,25 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8183,19 +8189,19 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8244,7 +8250,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8259,28 +8265,28 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8299,19 +8305,19 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8360,7 +8366,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8375,24 +8381,24 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8415,19 +8421,19 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8476,7 +8482,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8494,10 +8500,10 @@
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -8505,14 +8511,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8531,19 +8537,19 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -8592,7 +8598,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8610,10 +8616,10 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -8621,10 +8627,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8647,16 +8653,16 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8706,7 +8712,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8727,7 +8733,7 @@
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -8735,14 +8741,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8761,19 +8767,19 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -8822,7 +8828,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8840,10 +8846,10 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -8851,10 +8857,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8963,10 +8969,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9077,14 +9083,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9106,10 +9112,10 @@
         <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>139</v>
@@ -9164,7 +9170,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9193,10 +9199,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9222,16 +9228,16 @@
         <v>198</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -9280,7 +9286,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9301,7 +9307,7 @@
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -9309,10 +9315,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9335,16 +9341,16 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9394,7 +9400,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>90</v>
@@ -9415,7 +9421,7 @@
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -9423,14 +9429,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9452,16 +9458,16 @@
         <v>198</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>81</v>
@@ -9510,7 +9516,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9528,10 +9534,10 @@
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -9539,10 +9545,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9568,13 +9574,13 @@
         <v>182</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9600,13 +9606,13 @@
         <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
@@ -9624,7 +9630,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9642,10 +9648,10 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -9653,10 +9659,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9679,19 +9685,19 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -9740,7 +9746,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9758,10 +9764,10 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -5780,7 +5780,7 @@
         <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>292</v>
@@ -5894,7 +5894,7 @@
         <v>198</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>294</v>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -3368,7 +3368,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>80</v>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>90</v>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>90</v>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -4390,7 +4390,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>90</v>
